--- a/ANN_Modified/Data/Search/Optim Graphs/hn-e.xlsx
+++ b/ANN_Modified/Data/Search/Optim Graphs/hn-e.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\ANN_Modified\Data\Search\Optim Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CEAF17-8450-4FCD-B282-C9D63B2F9794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13845BF5-ECD5-4CF0-A879-CAF391BD87A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A898F730-E1F5-4713-A0C4-BB339A4374D8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t xml:space="preserve"> 2-2</t>
   </si>
@@ -156,12 +156,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,8 +182,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -293,7 +300,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000024-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -321,7 +330,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000025-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -349,7 +360,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000026-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -377,7 +390,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000027-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -405,7 +420,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000028-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -433,7 +450,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000029-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -461,7 +480,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002A-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -489,7 +510,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002B-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -517,7 +540,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002C-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -545,7 +570,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002D-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -573,7 +600,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002E-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -601,7 +630,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002F-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -629,7 +660,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000030-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -657,7 +690,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000031-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -685,7 +720,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000032-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -713,7 +750,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000033-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -741,7 +780,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000034-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -769,7 +810,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000035-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -797,7 +840,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000036-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -825,7 +870,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000037-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -853,7 +900,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000038-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -881,7 +930,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000039-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -909,7 +960,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003A-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -937,7 +990,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003B-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -965,7 +1020,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003C-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -993,7 +1050,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003D-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -1021,7 +1080,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003E-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -1049,7 +1110,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003F-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -1077,7 +1140,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000040-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -1105,7 +1170,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000041-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -1133,7 +1200,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000042-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -1161,7 +1230,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000043-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -1189,7 +1260,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000044-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -1217,7 +1290,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000045-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -1245,7 +1320,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000046-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -1273,7 +1350,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000047-F12F-4A49-96A9-A102A7A61A3E}"/>
                 </c:ext>
@@ -1830,12 +1909,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2405,16 +2479,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>347660</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>252410</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>101457</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>165734</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>26026</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2739,15 +2813,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF82D9BA-A585-455E-9529-E1DAF1252A37}">
-  <dimension ref="B2:D37"/>
+  <dimension ref="B2:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2757,8 +2831,19 @@
       <c r="D2">
         <v>6.7785981572996302E-3</v>
       </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f>(E2*8 + E2) + (F2*E2 + F2) + (3*F2 + 3)</f>
+        <v>33</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -2768,8 +2853,18 @@
       <c r="D3">
         <v>5.8178108696816701E-3</v>
       </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <f>(E3*8 + E3) + (F3*E3 + F3) + (3*F3 + 3)</f>
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -2779,8 +2874,18 @@
       <c r="D4">
         <v>5.8112364686574002E-3</v>
       </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G3:G37" si="0">(E4*8 + E4) + (F4*E4 + F4) + (3*F4 + 3)</f>
+        <v>69</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -2790,8 +2895,18 @@
       <c r="D5">
         <v>5.9454116303488203E-3</v>
       </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -2801,8 +2916,18 @@
       <c r="D6">
         <v>5.6535266611151902E-3</v>
       </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -2812,8 +2937,18 @@
       <c r="D7">
         <v>5.5058908275721196E-3</v>
       </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -2823,8 +2958,18 @@
       <c r="D8">
         <v>6.8748461862860799E-3</v>
       </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -2834,8 +2979,18 @@
       <c r="D9">
         <v>4.72196575334103E-3</v>
       </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -2845,8 +3000,18 @@
       <c r="D10">
         <v>8.6093186574785208E-3</v>
       </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -2856,8 +3021,18 @@
       <c r="D11">
         <v>5.5411934730757997E-3</v>
       </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -2867,8 +3042,18 @@
       <c r="D12">
         <v>5.5189719917076302E-3</v>
       </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -2878,8 +3063,18 @@
       <c r="D13">
         <v>4.8510795045004799E-3</v>
       </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -2889,8 +3084,18 @@
       <c r="D14">
         <v>6.5470013995827699E-3</v>
       </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -2900,8 +3105,18 @@
       <c r="D15">
         <v>6.24431788289937E-3</v>
       </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -2911,8 +3126,18 @@
       <c r="D16">
         <v>6.2978909049765299E-3</v>
       </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -2922,8 +3147,18 @@
       <c r="D17">
         <v>6.55600254230019E-3</v>
       </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>219</v>
+      </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -2933,8 +3168,18 @@
       <c r="D18">
         <v>5.2593823319052498E-3</v>
       </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>267</v>
+      </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -2944,8 +3189,18 @@
       <c r="D19">
         <v>5.6189964442045302E-3</v>
       </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -2955,8 +3210,18 @@
       <c r="D20">
         <v>6.0868915858833797E-3</v>
       </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -2966,8 +3231,18 @@
       <c r="D21">
         <v>4.9268479270058903E-3</v>
       </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -2977,8 +3252,18 @@
       <c r="D22">
         <v>5.8727781715548098E-3</v>
       </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -2988,8 +3273,18 @@
       <c r="D23">
         <v>5.4689893566944097E-3</v>
       </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>303</v>
+      </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -2999,8 +3294,18 @@
       <c r="D24">
         <v>5.0611880953965E-3</v>
       </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -3010,8 +3315,18 @@
       <c r="D25">
         <v>5.3518295411196098E-3</v>
       </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>431</v>
+      </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -3021,8 +3336,18 @@
       <c r="D26">
         <v>5.4420546997476296E-3</v>
       </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -3032,8 +3357,18 @@
       <c r="D27">
         <v>5.4607575110042703E-3</v>
       </c>
+      <c r="E27">
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -3043,8 +3378,18 @@
       <c r="D28">
         <v>6.1321709188080697E-3</v>
       </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>307</v>
+      </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -3054,8 +3399,18 @@
       <c r="D29">
         <v>4.7942454756664298E-3</v>
       </c>
+      <c r="E29">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>387</v>
+      </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>28</v>
       </c>
@@ -3065,8 +3420,18 @@
       <c r="D30">
         <v>5.4247701683412001E-3</v>
       </c>
+      <c r="E30">
+        <v>16</v>
+      </c>
+      <c r="F30">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>467</v>
+      </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -3076,8 +3441,18 @@
       <c r="D31">
         <v>5.5688011280417603E-3</v>
       </c>
+      <c r="E31">
+        <v>16</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>547</v>
+      </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -3087,8 +3462,18 @@
       <c r="D32">
         <v>5.2678882938306899E-3</v>
       </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>31</v>
       </c>
@@ -3098,8 +3483,18 @@
       <c r="D33">
         <v>4.9147561682482003E-3</v>
       </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>279</v>
+      </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>32</v>
       </c>
@@ -3109,8 +3504,18 @@
       <c r="D34">
         <v>5.1255046180052801E-3</v>
       </c>
+      <c r="E34">
+        <v>20</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -3120,8 +3525,18 @@
       <c r="D35">
         <v>5.35242686123138E-3</v>
       </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>471</v>
+      </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>34</v>
       </c>
@@ -3131,8 +3546,18 @@
       <c r="D36">
         <v>5.3215263724565604E-3</v>
       </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>16</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>567</v>
+      </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>35</v>
       </c>
@@ -3141,6 +3566,37 @@
       </c>
       <c r="D37">
         <v>5.1328710651770996E-3</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>20</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>663</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>161</v>
+      </c>
+      <c r="D39">
+        <v>6.7785981572996302E-3</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <f>(E39*8 + E39) + (F39*E39 + F39) + (3*F39 + 3)</f>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
